--- a/examples.xlsx
+++ b/examples.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="168">
   <si>
     <t xml:space="preserve">Example</t>
   </si>
@@ -56,7 +56,7 @@
 turn based</t>
   </si>
   <si>
-    <t xml:space="preserve">alpha_zero</t>
+    <t xml:space="preserve">alpha_zero.alpha_zero</t>
   </si>
   <si>
     <t xml:space="preserve">benchmark_games.py</t>
@@ -546,9 +546,6 @@
   </si>
   <si>
     <t xml:space="preserve">only game 'tic_tac_toe'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha_zero.alpha_zero</t>
   </si>
   <si>
     <t xml:space="preserve">tic_tac_toe_dqn_vs_tabular.py</t>
@@ -593,6 +590,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -614,12 +612,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -712,17 +712,17 @@
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C67" activeCellId="0" sqref="C67"/>
+      <selection pane="bottomLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="24.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.44"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1635,12 +1635,12 @@
         <v>158</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>13</v>
@@ -1652,12 +1652,12 @@
         <v>158</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>13</v>
@@ -1669,12 +1669,12 @@
         <v>158</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>13</v>
@@ -1686,12 +1686,12 @@
         <v>33</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>8</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>13</v>
@@ -1720,7 +1720,7 @@
         <v>158</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="167">
   <si>
     <t xml:space="preserve">Example</t>
   </si>
@@ -491,9 +491,6 @@
   </si>
   <si>
     <t xml:space="preserve">rl_example.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actions &gt; 2</t>
   </si>
   <si>
     <t xml:space="preserve">rl_main_loop.py</t>
@@ -712,9 +709,9 @@
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1536,43 +1533,43 @@
         <v>142</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>143</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>40</v>
       </c>
       <c r="D57" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" s="0" t="s">
         <v>145</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>15</v>
@@ -1584,12 +1581,12 @@
         <v>22</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>15</v>
@@ -1598,15 +1595,15 @@
         <v>9</v>
       </c>
       <c r="D60" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>15</v>
@@ -1615,24 +1612,24 @@
         <v>9</v>
       </c>
       <c r="D61" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="0" t="s">
         <v>157</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>158</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>11</v>
@@ -1640,41 +1637,41 @@
     </row>
     <row r="63" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>13</v>
@@ -1686,12 +1683,12 @@
         <v>33</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>8</v>
@@ -1708,19 +1705,19 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" s="0" t="s">
         <v>166</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="170">
   <si>
     <t xml:space="preserve">Example</t>
   </si>
@@ -137,11 +137,20 @@
   </si>
   <si>
     <t xml:space="preserve">deep_cfr.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">works *</t>
   </si>
   <si>
     <t xml:space="preserve">deep_cfr
 expected_game_score
 exploitability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2_seq.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">takes a long time with no GPU; use v2_seq so that state.information_state_tensor() is available</t>
   </si>
   <si>
     <t xml:space="preserve">deep_cfr_pytorch.py</t>
@@ -709,12 +718,12 @@
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
+      <selection pane="bottomLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.11"/>
@@ -904,7 +913,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>9</v>
@@ -913,18 +922,21 @@
         <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>9</v>
@@ -933,18 +945,18 @@
         <v>33</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>9</v>
@@ -953,12 +965,12 @@
         <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>8</v>
@@ -967,32 +979,32 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>13</v>
@@ -1000,24 +1012,24 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>8</v>
@@ -1026,15 +1038,15 @@
         <v>9</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>13</v>
@@ -1046,23 +1058,23 @@
         <v>33</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>15</v>
@@ -1070,88 +1082,88 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="C25" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>8</v>
@@ -1160,40 +1172,40 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>13</v>
@@ -1202,24 +1214,24 @@
         <v>9</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>21</v>
@@ -1227,7 +1239,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>13</v>
@@ -1235,7 +1247,7 @@
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>13</v>
@@ -1247,12 +1259,12 @@
         <v>33</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>8</v>
@@ -1261,26 +1273,26 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>13</v>
@@ -1289,12 +1301,12 @@
         <v>33</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>8</v>
@@ -1303,15 +1315,15 @@
         <v>9</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>13</v>
@@ -1320,7 +1332,7 @@
         <v>21</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>21</v>
@@ -1328,30 +1340,30 @@
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>104</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>21</v>
@@ -1359,21 +1371,21 @@
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>8</v>
@@ -1382,26 +1394,26 @@
         <v>9</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>15</v>
@@ -1409,18 +1421,18 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>15</v>
@@ -1428,7 +1440,7 @@
     </row>
     <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>8</v>
@@ -1437,32 +1449,32 @@
         <v>9</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>8</v>
@@ -1471,12 +1483,12 @@
         <v>9</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>8</v>
@@ -1485,32 +1497,32 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>8</v>
@@ -1519,18 +1531,18 @@
         <v>9</v>
       </c>
       <c r="D55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="G55" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>13</v>
@@ -1544,32 +1556,32 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>15</v>
@@ -1581,12 +1593,12 @@
         <v>22</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>15</v>
@@ -1595,15 +1607,15 @@
         <v>9</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>15</v>
@@ -1612,15 +1624,15 @@
         <v>9</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>13</v>
@@ -1629,7 +1641,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>11</v>
@@ -1637,7 +1649,7 @@
     </row>
     <row r="63" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>13</v>
@@ -1646,32 +1658,32 @@
         <v>9</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>157</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>13</v>
@@ -1683,12 +1695,12 @@
         <v>33</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>8</v>
@@ -1697,15 +1709,15 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>13</v>
@@ -1714,10 +1726,10 @@
         <v>9</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
